--- a/assets/ALL_medical term.xlsx
+++ b/assets/ALL_medical term.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96654\Downloads\TEST RESULTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59707CC-7032-4872-9C93-936BDC23FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCE866-8E25-4875-851E-415D19DE4442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{178B52C9-3EDE-46EA-9CA3-1E71B58BDCCA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{178B52C9-3EDE-46EA-9CA3-1E71B58BDCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="322">
   <si>
     <t>Hemoglobin</t>
   </si>
@@ -996,6 +996,12 @@
   </si>
   <si>
     <t>ng/L</t>
+  </si>
+  <si>
+    <t>SGOT (AST)</t>
+  </si>
+  <si>
+    <t>SGPT (ALT)</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7944E62E-2BA2-477B-8B66-6B4F1F00C70D}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H84"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2034,6 +2040,9 @@
       <c r="D27" t="s">
         <v>203</v>
       </c>
+      <c r="E27" t="s">
+        <v>321</v>
+      </c>
       <c r="F27">
         <v>5</v>
       </c>
@@ -2056,6 +2065,9 @@
       </c>
       <c r="D28" t="s">
         <v>205</v>
+      </c>
+      <c r="E28" t="s">
+        <v>320</v>
       </c>
       <c r="F28">
         <v>5</v>
